--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nppa-Npr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nppa-Npr1.xlsx
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3446886666666666</v>
+        <v>0.3030883333333333</v>
       </c>
       <c r="H2">
-        <v>1.034066</v>
+        <v>0.909265</v>
       </c>
       <c r="I2">
-        <v>0.787052069228761</v>
+        <v>0.5850568929085261</v>
       </c>
       <c r="J2">
-        <v>0.787052069228761</v>
+        <v>0.585056892908526</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>42.974232</v>
+        <v>44.68160133333333</v>
       </c>
       <c r="N2">
-        <v>128.922696</v>
+        <v>134.044804</v>
       </c>
       <c r="O2">
-        <v>0.9042771463677818</v>
+        <v>0.9072345081554035</v>
       </c>
       <c r="P2">
-        <v>0.9042771463677819</v>
+        <v>0.9072345081554034</v>
       </c>
       <c r="Q2">
-        <v>14.812730729104</v>
+        <v>13.54247207878445</v>
       </c>
       <c r="R2">
-        <v>133.314576561936</v>
+        <v>121.88224870906</v>
       </c>
       <c r="S2">
-        <v>0.7117131992050418</v>
+        <v>0.5307838024807953</v>
       </c>
       <c r="T2">
-        <v>0.7117131992050419</v>
+        <v>0.5307838024807952</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3446886666666666</v>
+        <v>0.3030883333333333</v>
       </c>
       <c r="H3">
-        <v>1.034066</v>
+        <v>0.909265</v>
       </c>
       <c r="I3">
-        <v>0.787052069228761</v>
+        <v>0.5850568929085261</v>
       </c>
       <c r="J3">
-        <v>0.787052069228761</v>
+        <v>0.585056892908526</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>12.229511</v>
       </c>
       <c r="O3">
-        <v>0.08577905715339211</v>
+        <v>0.08277108896415035</v>
       </c>
       <c r="P3">
-        <v>0.08577905715339212</v>
+        <v>0.08277108896415035</v>
       </c>
       <c r="Q3">
-        <v>1.405124613525111</v>
+        <v>1.235540702157222</v>
       </c>
       <c r="R3">
-        <v>12.646121521726</v>
+        <v>11.119866319415</v>
       </c>
       <c r="S3">
-        <v>0.06751258442906942</v>
+        <v>0.048425796132021</v>
       </c>
       <c r="T3">
-        <v>0.06751258442906943</v>
+        <v>0.04842579613202099</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3446886666666666</v>
+        <v>0.3030883333333333</v>
       </c>
       <c r="H4">
-        <v>1.034066</v>
+        <v>0.909265</v>
       </c>
       <c r="I4">
-        <v>0.787052069228761</v>
+        <v>0.5850568929085261</v>
       </c>
       <c r="J4">
-        <v>0.787052069228761</v>
+        <v>0.585056892908526</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4555053333333334</v>
+        <v>0.3223466666666667</v>
       </c>
       <c r="N4">
-        <v>1.366516</v>
+        <v>0.96704</v>
       </c>
       <c r="O4">
-        <v>0.009584884797521731</v>
+        <v>0.006545065773430512</v>
       </c>
       <c r="P4">
-        <v>0.009584884797521733</v>
+        <v>0.006545065773430512</v>
       </c>
       <c r="Q4">
-        <v>0.1570075260062222</v>
+        <v>0.09769951395555557</v>
       </c>
       <c r="R4">
-        <v>1.413067734056</v>
+        <v>0.8792956256</v>
       </c>
       <c r="S4">
-        <v>0.007543803413208773</v>
+        <v>0.003829235845285195</v>
       </c>
       <c r="T4">
-        <v>0.007543803413208774</v>
+        <v>0.003829235845285194</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.3446886666666666</v>
+        <v>0.3030883333333333</v>
       </c>
       <c r="H5">
-        <v>1.034066</v>
+        <v>0.909265</v>
       </c>
       <c r="I5">
-        <v>0.787052069228761</v>
+        <v>0.5850568929085261</v>
       </c>
       <c r="J5">
-        <v>0.787052069228761</v>
+        <v>0.585056892908526</v>
       </c>
       <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.01705666666666667</v>
+        <v>0.169881</v>
       </c>
       <c r="N5">
-        <v>0.05117</v>
+        <v>0.5096430000000001</v>
       </c>
       <c r="O5">
-        <v>0.0003589116813042709</v>
+        <v>0.003449337107015684</v>
       </c>
       <c r="P5">
-        <v>0.0003589116813042709</v>
+        <v>0.003449337107015683</v>
       </c>
       <c r="Q5">
-        <v>0.005879239691111112</v>
+        <v>0.05148894915500001</v>
       </c>
       <c r="R5">
-        <v>0.05291315722</v>
+        <v>0.4634005423950001</v>
       </c>
       <c r="S5">
-        <v>0.0002824821814409</v>
+        <v>0.00201805845042468</v>
       </c>
       <c r="T5">
-        <v>0.0002824821814409</v>
+        <v>0.00201805845042468</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.09326033333333333</v>
+        <v>0.214961</v>
       </c>
       <c r="H6">
-        <v>0.279781</v>
+        <v>0.644883</v>
       </c>
       <c r="I6">
-        <v>0.212947930771239</v>
+        <v>0.4149431070914739</v>
       </c>
       <c r="J6">
-        <v>0.212947930771239</v>
+        <v>0.4149431070914739</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.974232</v>
+        <v>44.68160133333333</v>
       </c>
       <c r="N6">
-        <v>128.922696</v>
+        <v>134.044804</v>
       </c>
       <c r="O6">
-        <v>0.9042771463677818</v>
+        <v>0.9072345081554035</v>
       </c>
       <c r="P6">
-        <v>0.9042771463677819</v>
+        <v>0.9072345081554034</v>
       </c>
       <c r="Q6">
-        <v>4.007791201064</v>
+        <v>9.604801704214665</v>
       </c>
       <c r="R6">
-        <v>36.070120809576</v>
+        <v>86.443215337932</v>
       </c>
       <c r="S6">
-        <v>0.1925639471627399</v>
+        <v>0.3764507056746082</v>
       </c>
       <c r="T6">
-        <v>0.1925639471627399</v>
+        <v>0.3764507056746082</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.09326033333333333</v>
+        <v>0.214961</v>
       </c>
       <c r="H7">
-        <v>0.279781</v>
+        <v>0.644883</v>
       </c>
       <c r="I7">
-        <v>0.212947930771239</v>
+        <v>0.4149431070914739</v>
       </c>
       <c r="J7">
-        <v>0.212947930771239</v>
+        <v>0.4149431070914739</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>12.229511</v>
       </c>
       <c r="O7">
-        <v>0.08577905715339211</v>
+        <v>0.08277108896415035</v>
       </c>
       <c r="P7">
-        <v>0.08577905715339212</v>
+        <v>0.08277108896415035</v>
       </c>
       <c r="Q7">
-        <v>0.3801760907878889</v>
+        <v>0.8762893046903333</v>
       </c>
       <c r="R7">
-        <v>3.421584817091</v>
+        <v>7.886603742213</v>
       </c>
       <c r="S7">
-        <v>0.01826647272432269</v>
+        <v>0.03434529283212935</v>
       </c>
       <c r="T7">
-        <v>0.0182664727243227</v>
+        <v>0.03434529283212935</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.09326033333333333</v>
+        <v>0.214961</v>
       </c>
       <c r="H8">
-        <v>0.279781</v>
+        <v>0.644883</v>
       </c>
       <c r="I8">
-        <v>0.212947930771239</v>
+        <v>0.4149431070914739</v>
       </c>
       <c r="J8">
-        <v>0.212947930771239</v>
+        <v>0.4149431070914739</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4555053333333334</v>
+        <v>0.3223466666666667</v>
       </c>
       <c r="N8">
-        <v>1.366516</v>
+        <v>0.96704</v>
       </c>
       <c r="O8">
-        <v>0.009584884797521731</v>
+        <v>0.006545065773430512</v>
       </c>
       <c r="P8">
-        <v>0.009584884797521733</v>
+        <v>0.006545065773430512</v>
       </c>
       <c r="Q8">
-        <v>0.04248057922177778</v>
+        <v>0.06929196181333333</v>
       </c>
       <c r="R8">
-        <v>0.382325212996</v>
+        <v>0.6236276563199999</v>
       </c>
       <c r="S8">
-        <v>0.002041081384312958</v>
+        <v>0.002715829928145317</v>
       </c>
       <c r="T8">
-        <v>0.002041081384312959</v>
+        <v>0.002715829928145317</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>25</v>
       </c>
       <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.214961</v>
+      </c>
+      <c r="H9">
+        <v>0.644883</v>
+      </c>
+      <c r="I9">
+        <v>0.4149431070914739</v>
+      </c>
+      <c r="J9">
+        <v>0.4149431070914739</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
         <v>1</v>
       </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.09326033333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.279781</v>
-      </c>
-      <c r="I9">
-        <v>0.212947930771239</v>
-      </c>
-      <c r="J9">
-        <v>0.212947930771239</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M9">
-        <v>0.01705666666666667</v>
+        <v>0.169881</v>
       </c>
       <c r="N9">
-        <v>0.05117</v>
+        <v>0.5096430000000001</v>
       </c>
       <c r="O9">
-        <v>0.0003589116813042709</v>
+        <v>0.003449337107015684</v>
       </c>
       <c r="P9">
-        <v>0.0003589116813042709</v>
+        <v>0.003449337107015683</v>
       </c>
       <c r="Q9">
-        <v>0.001590710418888889</v>
+        <v>0.036517789641</v>
       </c>
       <c r="R9">
-        <v>0.01431639377</v>
+        <v>0.328660106769</v>
       </c>
       <c r="S9">
-        <v>7.642949986337085E-05</v>
+        <v>0.001431278656591004</v>
       </c>
       <c r="T9">
-        <v>7.642949986337085E-05</v>
+        <v>0.001431278656591003</v>
       </c>
     </row>
   </sheetData>
